--- a/2O_GRAU.xlsx
+++ b/2O_GRAU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1C75D1-0B38-4A07-BB81-DD0FEEC520CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{402AC8A4-6D4E-4A3B-BED4-0010AD2A256E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2023,7 +2023,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{919EB142-C90D-42F1-98E9-28FF6FD495D2}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{85FBF079-C391-4DCC-826D-9BBA66C08BE5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2053,10 +2053,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1DC48B-F143-4AE8-A534-2E4D88409B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340D92CB-2F21-45A0-9ADC-AC771B2605CB}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2094,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E70AFE8-C6DD-4E68-8BD1-FC2E860CA7F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC8918E-99B2-42C8-A969-EFB4A47709BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2157,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A048F4CD-19AF-4663-874A-B3167A553E75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539A4936-8C3A-4BB5-8E9B-13C46D284FC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2176,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C86753F-BB26-D290-5BE7-E6D844AFA83A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5615A783-83CA-E0F8-D094-F7CDA905C0F9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2225,7 +2225,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BD8A62-DAFE-24B8-FC72-5002A6A0DA19}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C74E426-95EC-BEE3-52ED-048D83B0AED3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2244,7 +2244,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D7C901-CE83-8970-96CB-FB298119ECA1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2F4423-8583-F867-493B-1F8B3A15A429}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2275,7 +2275,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A21A11-DED0-812B-B472-9A31E83B739B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C857FB-39C9-B39F-9D81-1E54F1CC5490}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2306,7 +2306,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BD9013-926E-AB9C-A5CD-575BCD4DDFB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F424639B-E013-33CF-7C54-279ABAB383AB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2349,7 +2349,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BD1CD5-12FF-472C-A1DE-859B8F40C483}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5BE50B-DA01-46D8-9A1F-4D69E6F0224F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2387,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA88214-5D49-4E56-8236-C10CD530C32F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D6694F-BF85-4186-A917-BF84CAD11142}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2430,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380BBC3E-FA1E-4A08-83E0-E2173AA6683D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B1162C-B9E4-4A39-80DD-CFBA71166E93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2F98D1-86C0-4E28-9885-4BD724BC58AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F08E1CD-8184-4284-A8D0-2D4BCB66EB26}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/2O_GRAU.xlsx
+++ b/2O_GRAU.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{402AC8A4-6D4E-4A3B-BED4-0010AD2A256E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA1F52BA-0169-44AD-9EFA-8D919E33577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="4" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="3" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="594">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1805,15 +1804,6 @@
   </si>
   <si>
     <t>uniformes</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>2º GRAU</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2003,27 +1993,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{85FBF079-C391-4DCC-826D-9BBA66C08BE5}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{48E4077C-2E25-4291-B2A6-49D583B1256B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2053,10 +2028,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340D92CB-2F21-45A0-9ADC-AC771B2605CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F768C906-5E48-465A-9F51-8DC4C8370F21}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2069,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC8918E-99B2-42C8-A969-EFB4A47709BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1672873C-282F-4A2F-9E8F-70A09BB2BE27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2132,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539A4936-8C3A-4BB5-8E9B-13C46D284FC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92835A4F-75BC-40B3-8DF3-723B2679520C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2151,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5615A783-83CA-E0F8-D094-F7CDA905C0F9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E11489-7D25-EBAE-C9F5-46CD05901BB4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2225,7 +2200,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C74E426-95EC-BEE3-52ED-048D83B0AED3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A6CC76-55EF-B47F-82D1-76DA398B8C45}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2244,7 +2219,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2F4423-8583-F867-493B-1F8B3A15A429}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E7496D-8940-9571-9F8F-0277843422C9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2275,7 +2250,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C857FB-39C9-B39F-9D81-1E54F1CC5490}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D5D5A7-AEA9-FBCE-3C8A-710D3DFE2109}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2306,7 +2281,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F424639B-E013-33CF-7C54-279ABAB383AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63AE8ED-5BC0-7BBE-AAF6-6DD384C4775D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2349,7 +2324,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5BE50B-DA01-46D8-9A1F-4D69E6F0224F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D847480F-E4E9-4159-AD6D-3D35DD749432}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2362,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D6694F-BF85-4186-A917-BF84CAD11142}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BB5563-7F1A-4E55-A5E4-EF8254AE9A73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2405,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B1162C-B9E4-4A39-80DD-CFBA71166E93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42672B6B-1B40-417C-9AA0-418D31294088}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F08E1CD-8184-4284-A8D0-2D4BCB66EB26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548C837E-9038-4C7F-A647-C670897085ED}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2755,98 +2730,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="22"/>
-    <col min="6" max="6" width="2" style="22" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="22" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="22"/>
+    <col min="1" max="5" width="12.5703125" style="17"/>
+    <col min="6" max="6" width="2" style="17" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="17" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="21"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="21"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="21"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="21"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="21"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="21"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="21"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="21"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="21"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="21"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="21"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="21"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="21"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="21"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="21"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="21"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="21"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="21"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="21"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="21"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="21"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="21"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="21"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="21"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="21"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="21"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="21"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="21"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="21"/>
+      <c r="F29" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -11494,52 +11469,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="E1" s="17">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>596</v>
-      </c>
-      <c r="B2" s="20">
-        <v>14</v>
-      </c>
-      <c r="C2" s="18">
-        <v>9.2580346515011244E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/2O_GRAU.xlsx
+++ b/2O_GRAU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA1F52BA-0169-44AD-9EFA-8D919E33577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4071838B-5E0D-44E2-9EF1-173F9005109F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1998,7 +1998,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{48E4077C-2E25-4291-B2A6-49D583B1256B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9F93FC30-C028-4F03-BD71-44424C032925}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2028,10 +2028,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F768C906-5E48-465A-9F51-8DC4C8370F21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D655FA4-5383-41E5-8B46-BF10E0C0A5A8}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2069,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1672873C-282F-4A2F-9E8F-70A09BB2BE27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FED506-6382-4416-A0F2-9937E0BFE2B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2132,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92835A4F-75BC-40B3-8DF3-723B2679520C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B29EBA-22A6-4F08-B357-D23D9820495E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2151,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E11489-7D25-EBAE-C9F5-46CD05901BB4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043423EF-7DEB-2096-BDC5-C5D8DF6ACDAA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2200,7 +2200,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A6CC76-55EF-B47F-82D1-76DA398B8C45}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54307CC-DEFE-2EB5-F0AD-C604874FF0D3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2219,7 +2219,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E7496D-8940-9571-9F8F-0277843422C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF2A7B3-2028-8186-6F6D-E0407B2124A1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2250,7 +2250,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D5D5A7-AEA9-FBCE-3C8A-710D3DFE2109}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AC9F5F-14D9-171E-0855-564ED79617AD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2281,7 +2281,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63AE8ED-5BC0-7BBE-AAF6-6DD384C4775D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C14AC89-8F12-9F93-EB29-0489EEF1DEFA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2324,7 +2324,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D847480F-E4E9-4159-AD6D-3D35DD749432}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5809BE2B-4FF9-4D7C-A7E1-DB20EE773BC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2362,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BB5563-7F1A-4E55-A5E4-EF8254AE9A73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0672D0EC-0A6F-4E51-A120-F6B444E81D5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,50 +2387,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42672B6B-1B40-417C-9AA0-418D31294088}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2718,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548C837E-9038-4C7F-A647-C670897085ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CC8444-B357-4751-AC39-4DFF7C91F7E9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
